--- a/biology/Zoologie/Akita_(chien)/Akita_(chien).xlsx
+++ b/biology/Zoologie/Akita_(chien)/Akita_(chien).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’akita, également appelé akita inu et akita ken (秋田犬?, littéralement « chien d’Akita »), est une race de chien originaire du Japon.
@@ -513,13 +525,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La race date d'environ 300 ans[Passage contradictoire (Comment la race pourrait avoir cet âge si elle était déjà utilisée comme chien de combat en 1603 ? Parcequ'il y a écrit, précisément, que c'est une race "Descendante de l'Akita matagi ou matagi inu utilisée comme chien de combat au Japon dès 1603...")] et tire son nom de la préfecture d'Akita au nord de l'archipel japonais, étant originaire de la ville d'Ōdate dans cette préfecture[1]. Il était à l'origine élevé pour chasser l'ours, le cerf élaphe[1] et le sanglier mais également pour la garde. Descendante de l'Akita matagi ou matagi inu (マタギ犬?) et utilisée comme chien de combat au Japon dès 1603, la race est croisée avec le tosa et le mastiff pour en accroître sa taille. En 1908, le gouverneur de la préfecture d'Akita interdit les combats de chiens dans un effort pour préserver la pureté de la race et fonda en 1927 la « Société de préservation de l'Akita »[1]. En 1931, le ministère japonais de l'Éducation proclame l'Akita monument naturel ; dès lors, tous les efforts ont été fournis pour préserver la race et retrouver le standard d’origine[1].
-La Seconde Guerre mondiale pousse les akitas au bord de l'extinction car il était courant d’employer des peaux de chiens pour confectionner des vêtements[1]. La police captura tous les chiens sauf les bergers allemands, réservés pour des tâches militaires. Certains propriétaires essayèrent de contourner la loi en croisant leurs akitas américains avec ces derniers ainsi qu’en les cachant dans les montagnes, où la robustesse ainsi que leur instinct de chasse les a aidés à survivre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La race date d'environ 300 ans[Passage contradictoire (Comment la race pourrait avoir cet âge si elle était déjà utilisée comme chien de combat en 1603 ? Parcequ'il y a écrit, précisément, que c'est une race "Descendante de l'Akita matagi ou matagi inu utilisée comme chien de combat au Japon dès 1603...")] et tire son nom de la préfecture d'Akita au nord de l'archipel japonais, étant originaire de la ville d'Ōdate dans cette préfecture. Il était à l'origine élevé pour chasser l'ours, le cerf élaphe et le sanglier mais également pour la garde. Descendante de l'Akita matagi ou matagi inu (マタギ犬?) et utilisée comme chien de combat au Japon dès 1603, la race est croisée avec le tosa et le mastiff pour en accroître sa taille. En 1908, le gouverneur de la préfecture d'Akita interdit les combats de chiens dans un effort pour préserver la pureté de la race et fonda en 1927 la « Société de préservation de l'Akita ». En 1931, le ministère japonais de l'Éducation proclame l'Akita monument naturel ; dès lors, tous les efforts ont été fournis pour préserver la race et retrouver le standard d’origine.
+La Seconde Guerre mondiale pousse les akitas au bord de l'extinction car il était courant d’employer des peaux de chiens pour confectionner des vêtements. La police captura tous les chiens sauf les bergers allemands, réservés pour des tâches militaires. Certains propriétaires essayèrent de contourner la loi en croisant leurs akitas américains avec ces derniers ainsi qu’en les cachant dans les montagnes, où la robustesse ainsi que leur instinct de chasse les a aidés à survivre.
 À la fin de la Seconde Guerre mondiale, la race est très affaiblie et les chiens se présentent sous trois types morphologiques différents: akitas, akitas chiens de combat et akitas bergers allemands.
-C'est l'écrivaine américaine Helen Keller qui aurait rapporté, dans les années 1930, le premier akita en Amérique du Nord  après qu'on lui ait donné un chien durant une visite au Japon[2].
-Des akitas dont la morphologie était révélatrice de l'apport de sang de bergers allemands et de mastiffs sont importés aux États-Unis par les militaires. Le Club américain de l’akita est fondé en 1956 et le Kennel Club américain (AKC) accepte la race en octobre 1972. L'absence d'échanges entre l'AKC et le Kennel Club japonais (JKC) conduit à une différenciation des lignées américaines et japonaises, puis à la scission en deux races différentes : l'akita américain et l'akita[3].
+C'est l'écrivaine américaine Helen Keller qui aurait rapporté, dans les années 1930, le premier akita en Amérique du Nord  après qu'on lui ait donné un chien durant une visite au Japon.
+Des akitas dont la morphologie était révélatrice de l'apport de sang de bergers allemands et de mastiffs sont importés aux États-Unis par les militaires. Le Club américain de l’akita est fondé en 1956 et le Kennel Club américain (AKC) accepte la race en octobre 1972. L'absence d'échanges entre l'AKC et le Kennel Club japonais (JKC) conduit à une différenciation des lignées américaines et japonaises, puis à la scission en deux races différentes : l'akita américain et l'akita.
 Les éleveurs japonais se concentrèrent sur la préservation du type originel de l'akita (Akitas Matagis).
 Hachikō est l'akita le plus connu. Sa statue trône désormais devant la gare de Shibuya à Tōkyō. Ce chien fidèle accompagnait son maître, professeur d'université (M. Ueno), et l'attendait tous les jours devant la gare : il continua pendant neuf ans après la mort du vieux professeur, jusqu'à sa propre mort (il était nourri par les habitants). On dit qu'Hachikō est mort devant la gare mais il sera retrouvé sous un pont. Il existe d'ailleurs un film Hachiko (film japonais de 1987) qui est librement inspiré de cette histoire. Un remake américain a été tourné en 2009 sous le nom de Hatchi.
 Aujourd'hui, au Japon, l'akita est surtout utilisé comme chien de compagnie, de garde et chien policier.
@@ -551,7 +565,9 @@
           <t>Caractéristiques physiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'akita est un chien de taille moyenne, de constitution robuste et bien proportionné. Les caractères sexuels secondaires sont nettement marqués. Un chien adulte peut atteindre 58 à 71 cm au garrot. Son poids se situe généralement entre 27 et 32 kg pour la femelle et entre 32 et 50 kg pour le mâle.
 La robe peut être rouge fauve, sésame (poils rouge fauve à pointes noires) [cette couleur n'est plus présente de nos jours ou très peu], blanche ou bringée. Elle présente un marquage spécifique nommé Urajiro (blanc présent sur les pattes, la tête, le ventre). Le poil long n'est pas accepté par le standard de la race de la FCI. Le poil est court avec un sous-poil épais, des mues impressionnantes se font donc au printemps et en automne généralement.
@@ -585,8 +601,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tempérament
-L'akita est doté d'une grande intelligence et d'une capacité de raisonnement qui peuvent parfois déstabiliser ou surprendre ses maîtres. C'est pour cela que les moments d'éducation ne doivent pas dépasser vingt minutes, c’est relativement long pour un chien classique mais l'akita risque de s’ennuyer et de se désintéresser rapidement. Il est également très proche de sa famille, amical, doux, affectueux voire empressé. A contrario, ce chien peut ne montrer aucun intérêt envers des étrangers (dans la rue ou des invités à la maison) ; il peut même se montrer extrêmement réservé. L'akita est reconnu pour être un excellent chien de garde bien que réputé peu aboyeur (certains aboient cependant plus que d’autres), leur taille, en général, en impose assez pour dissuader.
+          <t>Tempérament</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'akita est doté d'une grande intelligence et d'une capacité de raisonnement qui peuvent parfois déstabiliser ou surprendre ses maîtres. C'est pour cela que les moments d'éducation ne doivent pas dépasser vingt minutes, c’est relativement long pour un chien classique mais l'akita risque de s’ennuyer et de se désintéresser rapidement. Il est également très proche de sa famille, amical, doux, affectueux voire empressé. A contrario, ce chien peut ne montrer aucun intérêt envers des étrangers (dans la rue ou des invités à la maison) ; il peut même se montrer extrêmement réservé. L'akita est reconnu pour être un excellent chien de garde bien que réputé peu aboyeur (certains aboient cependant plus que d’autres), leur taille, en général, en impose assez pour dissuader.
 Contrairement à ce que son physique laisse supposer (ressemblance avec les nordiques : husky sibérien, malamute, etc.), l'akita reste un chien très calme, bien qu'il apprécie les promenades journalières qui lui sont nécessaires pour s'épanouir et rester en forme. Il n'est pas question d'envisager de courir le marathon avec lui, il n'aura pas la motivation du husky : ce n’est pas une race à laquelle il faut penser en premier si l’on veut faire du sport avec. Mais il peut tout de même surprendre par sa vélocité sur quelques centaines de mètres (courses après un gibier par exemple). En revanche, cela n'empêche pas que l'akita a un besoin de dépense physique et mentale bien présent. Il est en général un bon chien pour faire des randonnées.
 Il est important de noter que sa morphologie ne le prédispose pas à la pratique du mushing, comme certains éleveurs peu scrupuleux le laissent croire. Il est trop lourd pour cette activité qui pourrait lui causer de sérieuses blessures.
 Enfin, l'akita n'est pas réputé être un gros mangeur même si certains se montrent gourmands. Beaucoup de maîtres s'inquiètent au début de ce manque d'appétit de leur nouveau compagnon.
@@ -630,10 +651,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Soins
-L'akita a besoin d'un brossage régulier, hebdomadaire voire quotidien en cas de mue à cause de son double poil. Les mues (l'ancien sous-poil tombe pour laisser place au nouveau) arrivent environ deux fois par an, vers l'automne et le printemps. Le pulseur est d'une grande aide afin de retirer un maximum de poils (attention à l'habituer au bruit et à la sensation de ce dernier). 
-Santé
-Des maladies auto-immunes héréditaires ne sont pas rares, on trouve de plus en plus de chiens atteints de l'adénite sébacée ou/et du VKH. Les méthodes d'éducation mais surtout l'environnement familial jouent également sur la santé des chiens. Les akitas sont d'une grande sensibilité sous leur attitude zen, ça peut prendre des proportions inattendues jusqu'à être les éléments déclencheurs de ces maladies. Ils sont plus généralement sensibles au niveau de la peau (allergies alimentaires et/ou environnementales en général). L'épilepsie devient de plus en plus fréquente dans la race ainsi que les ostéosarcomes et autres cancers. L'akita est, comme beaucoup de races, touché par la dysplasie des hanches et des coudes.
+          <t>Soins</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'akita a besoin d'un brossage régulier, hebdomadaire voire quotidien en cas de mue à cause de son double poil. Les mues (l'ancien sous-poil tombe pour laisser place au nouveau) arrivent environ deux fois par an, vers l'automne et le printemps. Le pulseur est d'une grande aide afin de retirer un maximum de poils (attention à l'habituer au bruit et à la sensation de ce dernier). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Akita_(chien)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Akita_(chien)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Élevage</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Santé</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des maladies auto-immunes héréditaires ne sont pas rares, on trouve de plus en plus de chiens atteints de l'adénite sébacée ou/et du VKH. Les méthodes d'éducation mais surtout l'environnement familial jouent également sur la santé des chiens. Les akitas sont d'une grande sensibilité sous leur attitude zen, ça peut prendre des proportions inattendues jusqu'à être les éléments déclencheurs de ces maladies. Ils sont plus généralement sensibles au niveau de la peau (allergies alimentaires et/ou environnementales en général). L'épilepsie devient de plus en plus fréquente dans la race ainsi que les ostéosarcomes et autres cancers. L'akita est, comme beaucoup de races, touché par la dysplasie des hanches et des coudes.
 </t>
         </is>
       </c>
